--- a/data/trans_orig/P70B_2007-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70B_2007-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5B8626D-FEE4-44EF-99D8-F2D4DEB6D0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{800C8C8B-CD67-4B9C-ABE6-70440CE1D1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{33D1F53B-51AB-4638-81A3-A023032C48BB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7DC219F0-115C-4613-B72F-B4C0D3C26F02}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,7 +77,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>13,67%</t>
+    <t>13,07%</t>
   </si>
   <si>
     <t>0%</t>
@@ -89,7 +89,7 @@
     <t>2,65%</t>
   </si>
   <si>
-    <t>9,14%</t>
+    <t>8,32%</t>
   </si>
   <si>
     <t>Mal o insuficientemente informado</t>
@@ -98,10 +98,10 @@
     <t>7,16%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
   </si>
   <si>
     <t>11,2%</t>
@@ -110,7 +110,7 @@
     <t>3,5%</t>
   </si>
   <si>
-    <t>30,15%</t>
+    <t>27,68%</t>
   </si>
   <si>
     <t>8,39%</t>
@@ -119,7 +119,7 @@
     <t>3,59%</t>
   </si>
   <si>
-    <t>15,64%</t>
+    <t>16,15%</t>
   </si>
   <si>
     <t>Bien o suficientemente informado</t>
@@ -128,28 +128,28 @@
     <t>48,16%</t>
   </si>
   <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
   </si>
   <si>
     <t>62,99%</t>
   </si>
   <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
   </si>
   <si>
     <t>52,68%</t>
   </si>
   <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
   </si>
   <si>
     <t>Bastante o muy bien informado</t>
@@ -158,28 +158,28 @@
     <t>40,87%</t>
   </si>
   <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
   </si>
   <si>
     <t>25,81%</t>
   </si>
   <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
   </si>
   <si>
     <t>36,28%</t>
   </si>
   <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
   </si>
   <si>
     <t>100%</t>
@@ -191,544 +191,544 @@
     <t>4,93%</t>
   </si>
   <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
   </si>
   <si>
     <t>8,93%</t>
   </si>
   <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
   </si>
   <si>
     <t>6,07%</t>
   </si>
   <si>
-    <t>4,04%</t>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
   </si>
   <si>
     <t>8,73%</t>
   </si>
   <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
     <t>9,83%</t>
   </si>
   <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
   </si>
   <si>
     <t>16,59%</t>
   </si>
   <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
   </si>
   <si>
     <t>12,61%</t>
   </si>
   <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
   </si>
   <si>
     <t>37,78%</t>
   </si>
   <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
   </si>
   <si>
     <t>34,39%</t>
   </si>
   <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
   </si>
   <si>
     <t>36,38%</t>
   </si>
   <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
   </si>
   <si>
     <t>48,09%</t>
   </si>
   <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
   </si>
   <si>
     <t>38,9%</t>
   </si>
   <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
   </si>
   <si>
     <t>44,31%</t>
   </si>
   <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
   </si>
   <si>
     <t>3,42%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
   </si>
   <si>
     <t>7,68%</t>
   </si>
   <si>
-    <t>9,52%</t>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
   </si>
   <si>
     <t>4,91%</t>
   </si>
   <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
   </si>
   <si>
     <t>10,23%</t>
   </si>
   <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
   </si>
   <si>
     <t>16,65%</t>
   </si>
   <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
   </si>
   <si>
     <t>12,48%</t>
   </si>
   <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
+    <t>13,8%</t>
   </si>
   <si>
     <t>38,66%</t>
   </si>
   <si>
-    <t>40,73%</t>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
   </si>
   <si>
     <t>38,87%</t>
   </si>
   <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
+    <t>35,94%</t>
   </si>
   <si>
     <t>38,74%</t>
   </si>
   <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
   </si>
   <si>
     <t>47,68%</t>
   </si>
   <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
   </si>
   <si>
     <t>36,8%</t>
   </si>
   <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
   </si>
   <si>
     <t>43,87%</t>
   </si>
   <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1143,7 +1143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7598AC-3447-4270-A1C8-0A1C34BBD196}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AEFB034-D701-48B0-9006-AEF106560BAE}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2012,7 +2012,7 @@
         <v>750</v>
       </c>
       <c r="N18" s="7">
-        <v>819803</v>
+        <v>819802</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>48</v>
@@ -2564,16 +2564,16 @@
         <v>73</v>
       </c>
       <c r="I29" s="7">
-        <v>77508</v>
+        <v>77507</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>200</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>56</v>
+        <v>201</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>131</v>
@@ -2582,13 +2582,13 @@
         <v>141665</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2603,13 +2603,13 @@
         <v>191827</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H30" s="7">
         <v>158</v>
@@ -2618,13 +2618,13 @@
         <v>167976</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M30" s="7">
         <v>340</v>
@@ -2633,10 +2633,10 @@
         <v>359803</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>212</v>
+        <v>22</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>213</v>
@@ -2657,10 +2657,10 @@
         <v>214</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>45</v>
+        <v>215</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>378</v>
@@ -2669,13 +2669,13 @@
         <v>392253</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="M31" s="7">
         <v>1075</v>
@@ -2717,7 +2717,7 @@
         <v>358</v>
       </c>
       <c r="I32" s="7">
-        <v>371279</v>
+        <v>371278</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>225</v>
@@ -2768,7 +2768,7 @@
         <v>967</v>
       </c>
       <c r="I33" s="7">
-        <v>1009016</v>
+        <v>1009015</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>48</v>

--- a/data/trans_orig/P70B_2007-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70B_2007-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{800C8C8B-CD67-4B9C-ABE6-70440CE1D1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{461585E9-345E-4DF9-A40F-131984A5D73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7DC219F0-115C-4613-B72F-B4C0D3C26F02}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4963DA9F-8AB4-49DE-9B45-2BBA1991041C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="233">
   <si>
     <t>Población según el nivel de informado que están con respecto a los riesgos que implican el uso de los materiales, instrumentos o productos que utiliza en su trabajo en 2007 (Tasa respuesta: 42,39%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Bastante o muy mal informado</t>
@@ -77,7 +77,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>13,07%</t>
+    <t>12,05%</t>
   </si>
   <si>
     <t>0%</t>
@@ -89,7 +89,7 @@
     <t>2,65%</t>
   </si>
   <si>
-    <t>8,32%</t>
+    <t>9,12%</t>
   </si>
   <si>
     <t>Mal o insuficientemente informado</t>
@@ -98,10 +98,10 @@
     <t>7,16%</t>
   </si>
   <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
   </si>
   <si>
     <t>11,2%</t>
@@ -110,16 +110,16 @@
     <t>3,5%</t>
   </si>
   <si>
-    <t>27,68%</t>
+    <t>30,08%</t>
   </si>
   <si>
     <t>8,39%</t>
   </si>
   <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
   </si>
   <si>
     <t>Bien o suficientemente informado</t>
@@ -128,28 +128,28 @@
     <t>48,16%</t>
   </si>
   <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
   </si>
   <si>
     <t>62,99%</t>
   </si>
   <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
   </si>
   <si>
     <t>52,68%</t>
   </si>
   <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
   </si>
   <si>
     <t>Bastante o muy bien informado</t>
@@ -158,577 +158,580 @@
     <t>40,87%</t>
   </si>
   <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
   </si>
   <si>
     <t>25,81%</t>
   </si>
   <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
   </si>
   <si>
     <t>36,28%</t>
   </si>
   <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>4,93%</t>
   </si>
   <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
   </si>
   <si>
     <t>8,93%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
   </si>
   <si>
     <t>6,07%</t>
   </si>
   <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
     <t>4,01%</t>
   </si>
   <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
   </si>
   <si>
     <t>45,37%</t>
   </si>
   <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
+    <t>49,8%</t>
   </si>
   <si>
     <t>36,8%</t>
   </si>
   <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
   </si>
   <si>
     <t>43,87%</t>
   </si>
   <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1143,7 +1146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AEFB034-D701-48B0-9006-AEF106560BAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6D92AD-B3B0-4062-98AA-24C026B70338}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2012,7 +2015,7 @@
         <v>750</v>
       </c>
       <c r="N18" s="7">
-        <v>819802</v>
+        <v>819803</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>48</v>
@@ -2478,13 +2481,13 @@
         <v>403344</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2552,28 +2555,28 @@
         <v>64157</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>73</v>
       </c>
       <c r="I29" s="7">
-        <v>77507</v>
+        <v>77508</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>131</v>
@@ -2582,13 +2585,13 @@
         <v>141665</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2603,13 +2606,13 @@
         <v>191827</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H30" s="7">
         <v>158</v>
@@ -2618,13 +2621,13 @@
         <v>167976</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M30" s="7">
         <v>340</v>
@@ -2633,10 +2636,10 @@
         <v>359803</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>213</v>
@@ -2675,7 +2678,7 @@
         <v>218</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>1075</v>
@@ -2684,13 +2687,13 @@
         <v>1116965</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,28 +2708,28 @@
         <v>893658</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>358</v>
       </c>
       <c r="I32" s="7">
-        <v>371278</v>
+        <v>371279</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>1214</v>
@@ -2735,13 +2738,13 @@
         <v>1264937</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2768,7 +2771,7 @@
         <v>967</v>
       </c>
       <c r="I33" s="7">
-        <v>1009015</v>
+        <v>1009016</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>48</v>
@@ -2797,7 +2800,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70B_2007-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70B_2007-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{461585E9-345E-4DF9-A40F-131984A5D73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D51F94F7-C7C6-489B-AD39-334CA4357271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4963DA9F-8AB4-49DE-9B45-2BBA1991041C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BD4B454F-00E9-4919-83A4-F16DEEA56B6A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="232">
   <si>
     <t>Población según el nivel de informado que están con respecto a los riesgos que implican el uso de los materiales, instrumentos o productos que utiliza en su trabajo en 2007 (Tasa respuesta: 42,39%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>12,05%</t>
+    <t>13,67%</t>
   </si>
   <si>
     <t>0%</t>
@@ -89,7 +89,7 @@
     <t>2,65%</t>
   </si>
   <si>
-    <t>9,12%</t>
+    <t>9,14%</t>
   </si>
   <si>
     <t>Mal o insuficientemente informado</t>
@@ -98,10 +98,10 @@
     <t>7,16%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
   </si>
   <si>
     <t>11,2%</t>
@@ -110,16 +110,16 @@
     <t>3,5%</t>
   </si>
   <si>
-    <t>30,08%</t>
+    <t>30,15%</t>
   </si>
   <si>
     <t>8,39%</t>
   </si>
   <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
   </si>
   <si>
     <t>Bien o suficientemente informado</t>
@@ -128,28 +128,28 @@
     <t>48,16%</t>
   </si>
   <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
   </si>
   <si>
     <t>62,99%</t>
   </si>
   <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
   </si>
   <si>
     <t>52,68%</t>
   </si>
   <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
   </si>
   <si>
     <t>Bastante o muy bien informado</t>
@@ -158,28 +158,28 @@
     <t>40,87%</t>
   </si>
   <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
   </si>
   <si>
     <t>25,81%</t>
   </si>
   <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
   </si>
   <si>
     <t>36,28%</t>
   </si>
   <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
   </si>
   <si>
     <t>100%</t>
@@ -191,109 +191,109 @@
     <t>4,93%</t>
   </si>
   <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
   </si>
   <si>
     <t>8,93%</t>
   </si>
   <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
   </si>
   <si>
     <t>6,07%</t>
   </si>
   <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
   </si>
   <si>
     <t>15,62%</t>
   </si>
   <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
   </si>
   <si>
     <t>24,07%</t>
   </si>
   <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
   </si>
   <si>
     <t>18,04%</t>
   </si>
   <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
   </si>
   <si>
     <t>41,35%</t>
   </si>
   <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
   </si>
   <si>
     <t>38,09%</t>
   </si>
   <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
   </si>
   <si>
     <t>40,42%</t>
   </si>
   <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
   </si>
   <si>
     <t>38,11%</t>
   </si>
   <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
   </si>
   <si>
     <t>28,9%</t>
   </si>
   <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
   </si>
   <si>
     <t>35,47%</t>
   </si>
   <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -302,109 +302,109 @@
     <t>1,8%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
   </si>
   <si>
     <t>4,26%</t>
   </si>
   <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
   </si>
   <si>
     <t>2,6%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
   </si>
   <si>
     <t>8,54%</t>
   </si>
   <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
   </si>
   <si>
     <t>18,96%</t>
   </si>
   <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
   </si>
   <si>
     <t>11,92%</t>
   </si>
   <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
   </si>
   <si>
     <t>37,44%</t>
   </si>
   <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
   </si>
   <si>
     <t>40,83%</t>
   </si>
   <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
   </si>
   <si>
     <t>38,54%</t>
   </si>
   <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
   </si>
   <si>
     <t>52,22%</t>
   </si>
   <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
   </si>
   <si>
     <t>35,95%</t>
   </si>
   <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
   </si>
   <si>
     <t>46,95%</t>
   </si>
   <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -413,286 +413,283 @@
     <t>3,21%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
   </si>
   <si>
     <t>7,76%</t>
   </si>
   <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
   </si>
   <si>
     <t>4,79%</t>
   </si>
   <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
   </si>
   <si>
     <t>9,15%</t>
   </si>
   <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
   </si>
   <si>
     <t>9,94%</t>
   </si>
   <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
   </si>
   <si>
     <t>9,43%</t>
   </si>
   <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
   </si>
   <si>
     <t>38,03%</t>
   </si>
   <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
   </si>
   <si>
     <t>42,02%</t>
   </si>
   <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
   </si>
   <si>
     <t>39,42%</t>
   </si>
   <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
   </si>
   <si>
     <t>49,61%</t>
   </si>
   <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
     <t>44,31%</t>
   </si>
   <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
   </si>
   <si>
     <t>3,42%</t>
   </si>
   <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
   </si>
   <si>
     <t>7,68%</t>
   </si>
   <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
+    <t>9,52%</t>
   </si>
   <si>
     <t>4,91%</t>
   </si>
   <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
   </si>
   <si>
     <t>10,23%</t>
   </si>
   <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
   </si>
   <si>
     <t>16,65%</t>
   </si>
   <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
   </si>
   <si>
     <t>12,48%</t>
   </si>
   <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
   </si>
   <si>
     <t>38,66%</t>
   </si>
   <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
+    <t>40,73%</t>
   </si>
   <si>
     <t>38,87%</t>
   </si>
   <si>
-    <t>35,83%</t>
+    <t>35,89%</t>
   </si>
   <si>
     <t>41,98%</t>
@@ -701,37 +698,37 @@
     <t>38,74%</t>
   </si>
   <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
   </si>
   <si>
     <t>47,68%</t>
   </si>
   <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
   </si>
   <si>
     <t>36,8%</t>
   </si>
   <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
   </si>
   <si>
     <t>43,87%</t>
   </si>
   <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1146,7 +1143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6D92AD-B3B0-4062-98AA-24C026B70338}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95638C1-C79F-45D0-BC67-60BFE61DD671}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2481,13 +2478,13 @@
         <v>403344</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2555,13 +2552,13 @@
         <v>64157</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>73</v>
@@ -2570,10 +2567,10 @@
         <v>77508</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>56</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>201</v>
@@ -2660,10 +2657,10 @@
         <v>214</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>378</v>
@@ -2672,13 +2669,13 @@
         <v>392253</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>1075</v>
@@ -2687,13 +2684,13 @@
         <v>1116965</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,13 +2705,13 @@
         <v>893658</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>358</v>
@@ -2723,13 +2720,13 @@
         <v>371279</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>1214</v>
@@ -2738,13 +2735,13 @@
         <v>1264937</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2800,7 +2797,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70B_2007-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70B_2007-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D51F94F7-C7C6-489B-AD39-334CA4357271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2670C964-D924-4A20-95AE-7B84BB1ECC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BD4B454F-00E9-4919-83A4-F16DEEA56B6A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{125C098F-7B79-4376-BAC7-40E71FF09304}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="198">
   <si>
     <t>Población según el nivel de informado que están con respecto a los riesgos que implican el uso de los materiales, instrumentos o productos que utiliza en su trabajo en 2007 (Tasa respuesta: 42,39%)</t>
   </si>
@@ -65,622 +65,520 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Bastante o muy mal informado</t>
   </si>
   <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
   </si>
   <si>
     <t>Mal o insuficientemente informado</t>
   </si>
   <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
   </si>
   <si>
     <t>Bien o suficientemente informado</t>
   </si>
   <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
   </si>
   <si>
     <t>Bastante o muy bien informado</t>
   </si>
   <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
   </si>
   <si>
     <t>36,28%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
   </si>
   <si>
     <t>40,73%</t>
@@ -1143,8 +1041,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95638C1-C79F-45D0-BC67-60BFE61DD671}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF98556C-08AF-4EB8-8241-30D08F07D9A3}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1261,10 +1159,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>2129</v>
+        <v>18249</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1276,187 +1174,187 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>11712</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="N4" s="7">
-        <v>2129</v>
+        <v>29961</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D5" s="7">
-        <v>3996</v>
+        <v>55115</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="I5" s="7">
-        <v>2744</v>
+        <v>34307</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="N5" s="7">
-        <v>6740</v>
+        <v>89422</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="D6" s="7">
-        <v>26889</v>
+        <v>162201</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="I6" s="7">
-        <v>15429</v>
+        <v>65375</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="N6" s="7">
-        <v>42318</v>
+        <v>227575</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="D7" s="7">
-        <v>22823</v>
+        <v>147525</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="I7" s="7">
-        <v>6321</v>
+        <v>44211</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="N7" s="7">
-        <v>29144</v>
+        <v>191736</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1465,255 +1363,255 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>49</v>
+        <v>366</v>
       </c>
       <c r="D8" s="7">
-        <v>55838</v>
+        <v>383090</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="I8" s="7">
-        <v>24493</v>
+        <v>155605</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
-        <v>76</v>
+        <v>518</v>
       </c>
       <c r="N8" s="7">
-        <v>80331</v>
+        <v>538695</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D9" s="7">
-        <v>16120</v>
+        <v>9994</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I9" s="7">
-        <v>11712</v>
+        <v>11316</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N9" s="7">
-        <v>27832</v>
+        <v>21310</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D10" s="7">
-        <v>51119</v>
+        <v>47300</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="I10" s="7">
-        <v>31563</v>
+        <v>50386</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="N10" s="7">
-        <v>82682</v>
+        <v>97685</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="D11" s="7">
-        <v>135311</v>
+        <v>207454</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="I11" s="7">
-        <v>49946</v>
+        <v>108483</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="M11" s="7">
-        <v>180</v>
+        <v>294</v>
       </c>
       <c r="N11" s="7">
-        <v>185257</v>
+        <v>315937</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>120</v>
+        <v>259</v>
       </c>
       <c r="D12" s="7">
-        <v>124702</v>
+        <v>289339</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="I12" s="7">
-        <v>37891</v>
+        <v>95531</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
-        <v>156</v>
+        <v>347</v>
       </c>
       <c r="N12" s="7">
-        <v>162593</v>
+        <v>384870</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1722,255 +1620,255 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>317</v>
+        <v>503</v>
       </c>
       <c r="D13" s="7">
-        <v>327252</v>
+        <v>554087</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="I13" s="7">
-        <v>131112</v>
+        <v>265716</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>442</v>
+        <v>750</v>
       </c>
       <c r="N13" s="7">
-        <v>458364</v>
+        <v>819803</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D14" s="7">
-        <v>9994</v>
+        <v>12859</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I14" s="7">
-        <v>11316</v>
+        <v>16579</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="N14" s="7">
-        <v>21310</v>
+        <v>29437</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D15" s="7">
-        <v>47300</v>
+        <v>36712</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="I15" s="7">
-        <v>50386</v>
+        <v>21224</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="N15" s="7">
-        <v>97685</v>
+        <v>57936</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>191</v>
+        <v>140</v>
       </c>
       <c r="D16" s="7">
-        <v>207454</v>
+        <v>152557</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="I16" s="7">
-        <v>108483</v>
+        <v>89719</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
-        <v>294</v>
+        <v>229</v>
       </c>
       <c r="N16" s="7">
-        <v>315937</v>
+        <v>242275</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="D17" s="7">
-        <v>289339</v>
+        <v>198992</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I17" s="7">
-        <v>95531</v>
+        <v>85994</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
-        <v>347</v>
+        <v>278</v>
       </c>
       <c r="N17" s="7">
-        <v>384870</v>
+        <v>284986</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1979,255 +1877,255 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>503</v>
+        <v>371</v>
       </c>
       <c r="D18" s="7">
-        <v>554087</v>
+        <v>401120</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="I18" s="7">
-        <v>265716</v>
+        <v>213516</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>750</v>
+        <v>585</v>
       </c>
       <c r="N18" s="7">
-        <v>819803</v>
+        <v>614635</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D19" s="7">
-        <v>12859</v>
+        <v>23055</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I19" s="7">
-        <v>16579</v>
+        <v>37901</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="N19" s="7">
-        <v>29437</v>
+        <v>60956</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D20" s="7">
-        <v>36712</v>
+        <v>52700</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="I20" s="7">
-        <v>21224</v>
+        <v>62059</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="N20" s="7">
-        <v>57936</v>
+        <v>114759</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>140</v>
+        <v>211</v>
       </c>
       <c r="D21" s="7">
-        <v>152557</v>
+        <v>202500</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="I21" s="7">
-        <v>89719</v>
+        <v>128677</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
-        <v>229</v>
+        <v>332</v>
       </c>
       <c r="N21" s="7">
-        <v>242275</v>
+        <v>331177</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>188</v>
+        <v>269</v>
       </c>
       <c r="D22" s="7">
-        <v>198992</v>
+        <v>257802</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="I22" s="7">
-        <v>85994</v>
+        <v>145542</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
-        <v>278</v>
+        <v>406</v>
       </c>
       <c r="N22" s="7">
-        <v>284986</v>
+        <v>403344</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2236,63 +2134,63 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>371</v>
+        <v>553</v>
       </c>
       <c r="D23" s="7">
-        <v>401120</v>
+        <v>536057</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
-        <v>214</v>
+        <v>354</v>
       </c>
       <c r="I23" s="7">
-        <v>213516</v>
+        <v>374179</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
-        <v>585</v>
+        <v>907</v>
       </c>
       <c r="N23" s="7">
-        <v>614635</v>
+        <v>910236</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="D24" s="7">
-        <v>23055</v>
+        <v>64157</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>161</v>
@@ -2304,10 +2202,10 @@
         <v>163</v>
       </c>
       <c r="H24" s="7">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="I24" s="7">
-        <v>37901</v>
+        <v>77507</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>164</v>
@@ -2319,10 +2217,10 @@
         <v>166</v>
       </c>
       <c r="M24" s="7">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="N24" s="7">
-        <v>60956</v>
+        <v>141665</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>167</v>
@@ -2337,13 +2235,13 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>52</v>
+        <v>182</v>
       </c>
       <c r="D25" s="7">
-        <v>52700</v>
+        <v>191827</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>170</v>
@@ -2355,10 +2253,10 @@
         <v>172</v>
       </c>
       <c r="H25" s="7">
-        <v>60</v>
+        <v>158</v>
       </c>
       <c r="I25" s="7">
-        <v>62059</v>
+        <v>167976</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>173</v>
@@ -2370,10 +2268,10 @@
         <v>175</v>
       </c>
       <c r="M25" s="7">
-        <v>112</v>
+        <v>340</v>
       </c>
       <c r="N25" s="7">
-        <v>114759</v>
+        <v>359803</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>176</v>
@@ -2388,13 +2286,13 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>211</v>
+        <v>697</v>
       </c>
       <c r="D26" s="7">
-        <v>202500</v>
+        <v>724712</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>179</v>
@@ -2406,10 +2304,10 @@
         <v>181</v>
       </c>
       <c r="H26" s="7">
-        <v>121</v>
+        <v>378</v>
       </c>
       <c r="I26" s="7">
-        <v>128677</v>
+        <v>392253</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>182</v>
@@ -2421,10 +2319,10 @@
         <v>184</v>
       </c>
       <c r="M26" s="7">
-        <v>332</v>
+        <v>1075</v>
       </c>
       <c r="N26" s="7">
-        <v>331177</v>
+        <v>1116965</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>185</v>
@@ -2439,13 +2337,13 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>269</v>
+        <v>856</v>
       </c>
       <c r="D27" s="7">
-        <v>257802</v>
+        <v>893658</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>188</v>
@@ -2457,10 +2355,10 @@
         <v>190</v>
       </c>
       <c r="H27" s="7">
-        <v>137</v>
+        <v>358</v>
       </c>
       <c r="I27" s="7">
-        <v>145542</v>
+        <v>371278</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>191</v>
@@ -2472,10 +2370,10 @@
         <v>193</v>
       </c>
       <c r="M27" s="7">
-        <v>406</v>
+        <v>1214</v>
       </c>
       <c r="N27" s="7">
-        <v>403344</v>
+        <v>1264937</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>194</v>
@@ -2493,319 +2391,61 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>553</v>
+        <v>1793</v>
       </c>
       <c r="D28" s="7">
-        <v>536057</v>
+        <v>1874354</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
-        <v>354</v>
+        <v>967</v>
       </c>
       <c r="I28" s="7">
-        <v>374179</v>
+        <v>1009015</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
-        <v>907</v>
+        <v>2760</v>
       </c>
       <c r="N28" s="7">
-        <v>910236</v>
+        <v>2883369</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>58</v>
-      </c>
-      <c r="D29" s="7">
-        <v>64157</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="A29" t="s">
         <v>197</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H29" s="7">
-        <v>73</v>
-      </c>
-      <c r="I29" s="7">
-        <v>77508</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="M29" s="7">
-        <v>131</v>
-      </c>
-      <c r="N29" s="7">
-        <v>141665</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="7">
-        <v>182</v>
-      </c>
-      <c r="D30" s="7">
-        <v>191827</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H30" s="7">
-        <v>158</v>
-      </c>
-      <c r="I30" s="7">
-        <v>167976</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="M30" s="7">
-        <v>340</v>
-      </c>
-      <c r="N30" s="7">
-        <v>359803</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="7">
-        <v>697</v>
-      </c>
-      <c r="D31" s="7">
-        <v>724712</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H31" s="7">
-        <v>378</v>
-      </c>
-      <c r="I31" s="7">
-        <v>392253</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M31" s="7">
-        <v>1075</v>
-      </c>
-      <c r="N31" s="7">
-        <v>1116965</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="7">
-        <v>856</v>
-      </c>
-      <c r="D32" s="7">
-        <v>893658</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H32" s="7">
-        <v>358</v>
-      </c>
-      <c r="I32" s="7">
-        <v>371279</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M32" s="7">
-        <v>1214</v>
-      </c>
-      <c r="N32" s="7">
-        <v>1264937</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>1793</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1874354</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H33" s="7">
-        <v>967</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1009016</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M33" s="7">
-        <v>2760</v>
-      </c>
-      <c r="N33" s="7">
-        <v>2883369</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>231</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
